--- a/datastatic/datasets/online/SDG1_People_at_risk_of_poverty_EUROSTAT_2014.xlsx
+++ b/datastatic/datasets/online/SDG1_People_at_risk_of_poverty_EUROSTAT_2014.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="D_People_at_risk_of_poverty_EUROSTAT_2014.csv" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="D_People_at_risk_of_poverty_EUR" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -169,7 +169,7 @@
     <t>source$value</t>
   </si>
   <si>
-    <t>Europe2020</t>
+    <t>EU2020</t>
   </si>
   <si>
     <t>source$maintainer</t>

--- a/datastatic/datasets/online/SDG1_People_at_risk_of_poverty_EUROSTAT_2014.xlsx
+++ b/datastatic/datasets/online/SDG1_People_at_risk_of_poverty_EUROSTAT_2014.xlsx
@@ -297,7 +297,7 @@
     <numFmt numFmtId="164" formatCode="d, m"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -329,6 +329,10 @@
     <font>
       <u/>
       <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -370,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -420,6 +424,9 @@
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -838,7 +845,9 @@
       <c r="A44" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B44" s="15"/>
+      <c r="B44" s="17">
+        <v>15.6</v>
+      </c>
       <c r="C44" s="16">
         <v>15.6</v>
       </c>
@@ -1244,7 +1253,9 @@
       <c r="A68" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="B68" s="15"/>
+      <c r="B68" s="17">
+        <v>13.8</v>
+      </c>
       <c r="C68" s="16">
         <v>13.8</v>
       </c>
@@ -1259,7 +1270,9 @@
       <c r="A69" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="B69" s="15"/>
+      <c r="B69" s="17">
+        <v>22.1</v>
+      </c>
       <c r="C69" s="16">
         <v>22.1</v>
       </c>
@@ -1289,7 +1302,9 @@
       <c r="A71" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B71" s="15"/>
+      <c r="B71" s="17">
+        <v>23.1</v>
+      </c>
       <c r="C71" s="15"/>
       <c r="D71" s="16">
         <v>23.1</v>

--- a/datastatic/datasets/online/SDG1_People_at_risk_of_poverty_EUROSTAT_2014.xlsx
+++ b/datastatic/datasets/online/SDG1_People_at_risk_of_poverty_EUROSTAT_2014.xlsx
@@ -437,7 +437,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 

--- a/datastatic/datasets/online/SDG1_People_at_risk_of_poverty_EUROSTAT_2014.xlsx
+++ b/datastatic/datasets/online/SDG1_People_at_risk_of_poverty_EUROSTAT_2014.xlsx
@@ -437,7 +437,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
